--- a/data/trans_orig/P14C04-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C04-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6BC266F-FE8A-4A0C-AC3B-AFE34CB4EE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E721930-855F-4449-AB2B-880B0AF2779B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{406B596F-B33A-40F1-9DED-860D30893AE4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3448A59C-0D06-467F-9EAA-CF9605CF07AB}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="249">
   <si>
     <t>Población según el tiempo de diagnóstico de la colesterol en 2015 (Tasa respuesta: 11,78%)</t>
   </si>
@@ -74,724 +74,712 @@
     <t>59,19%</t>
   </si>
   <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
   </si>
   <si>
     <t>69,56%</t>
   </si>
   <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
   </si>
   <si>
     <t>64,59%</t>
   </si>
   <si>
-    <t>51,9%</t>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>De 1 a 4 años</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>Ultimos 12 meses</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
   </si>
   <si>
     <t>75,77%</t>
   </si>
   <si>
-    <t>De 1 a 4 años</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>Ultimos 12 meses</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
     <t>17,86%</t>
   </si>
   <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
   </si>
   <si>
     <t>24,98%</t>
   </si>
   <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
   </si>
   <si>
     <t>22,01%</t>
   </si>
   <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
   </si>
   <si>
     <t>5,55%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
   </si>
   <si>
     <t>10,9%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
   </si>
   <si>
     <t>8,67%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
   </si>
   <si>
     <t>67,67%</t>
   </si>
   <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
   </si>
   <si>
     <t>71,73%</t>
   </si>
   <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
   </si>
   <si>
     <t>69,86%</t>
   </si>
   <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
   </si>
   <si>
     <t>24,38%</t>
   </si>
   <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
   </si>
   <si>
     <t>20,91%</t>
   </si>
   <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
   </si>
   <si>
     <t>22,5%</t>
   </si>
   <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
   </si>
   <si>
     <t>7,94%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
+    <t>11,17%</t>
   </si>
   <si>
     <t>7,37%</t>
   </si>
   <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1206,7 +1194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F72D45-0592-44D4-8C4D-8249CC6C62CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5A5257-7C4F-4E65-A6A7-751D5F27D272}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1850,7 +1838,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1859,13 +1847,13 @@
         <v>902</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -1874,13 +1862,13 @@
         <v>1942</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,7 +1924,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1948,13 +1936,13 @@
         <v>38899</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -1963,13 +1951,13 @@
         <v>46428</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -1978,13 +1966,13 @@
         <v>85327</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1999,13 +1987,13 @@
         <v>3618</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -2014,13 +2002,13 @@
         <v>4873</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -2029,13 +2017,13 @@
         <v>8490</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2050,13 +2038,13 @@
         <v>2981</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -2065,13 +2053,13 @@
         <v>5032</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
@@ -2080,13 +2068,13 @@
         <v>8013</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2142,7 +2130,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2154,13 +2142,13 @@
         <v>25309</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -2169,13 +2157,13 @@
         <v>28255</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>54</v>
@@ -2184,13 +2172,13 @@
         <v>53564</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2205,13 +2193,13 @@
         <v>2086</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -2220,13 +2208,13 @@
         <v>3979</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -2235,13 +2223,13 @@
         <v>6065</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2259,10 +2247,10 @@
         <v>32</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2274,10 +2262,10 @@
         <v>32</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2289,10 +2277,10 @@
         <v>32</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,7 +2336,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2360,13 +2348,13 @@
         <v>13973</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -2375,13 +2363,13 @@
         <v>17649</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M24" s="7">
         <v>31</v>
@@ -2390,13 +2378,13 @@
         <v>31622</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,13 +2399,13 @@
         <v>8674</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -2426,13 +2414,13 @@
         <v>10858</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -2441,13 +2429,13 @@
         <v>19531</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2462,13 +2450,13 @@
         <v>4710</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2477,13 +2465,13 @@
         <v>890</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -2492,13 +2480,13 @@
         <v>5600</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2554,7 +2542,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2566,13 +2554,13 @@
         <v>39433</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H28" s="7">
         <v>43</v>
@@ -2581,13 +2569,13 @@
         <v>49611</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M28" s="7">
         <v>79</v>
@@ -2596,13 +2584,13 @@
         <v>89044</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,13 +2605,13 @@
         <v>23275</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -2632,13 +2620,13 @@
         <v>12205</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M29" s="7">
         <v>30</v>
@@ -2647,13 +2635,13 @@
         <v>35480</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2668,13 +2656,13 @@
         <v>9354</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -2683,13 +2671,13 @@
         <v>5197</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M30" s="7">
         <v>14</v>
@@ -2698,13 +2686,13 @@
         <v>14551</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2760,7 +2748,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2772,13 +2760,13 @@
         <v>60059</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H32" s="7">
         <v>58</v>
@@ -2787,13 +2775,13 @@
         <v>70282</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M32" s="7">
         <v>117</v>
@@ -2802,13 +2790,13 @@
         <v>130340</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,13 +2811,13 @@
         <v>14005</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H33" s="7">
         <v>22</v>
@@ -2838,13 +2826,13 @@
         <v>27386</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M33" s="7">
         <v>35</v>
@@ -2853,13 +2841,13 @@
         <v>41391</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2874,13 +2862,13 @@
         <v>4350</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H34" s="7">
         <v>10</v>
@@ -2889,13 +2877,13 @@
         <v>11945</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M34" s="7">
         <v>14</v>
@@ -2904,13 +2892,13 @@
         <v>16295</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,13 +2966,13 @@
         <v>260482</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H36" s="7">
         <v>283</v>
@@ -2993,13 +2981,13 @@
         <v>324207</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M36" s="7">
         <v>544</v>
@@ -3008,13 +2996,13 @@
         <v>584688</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,13 +3017,13 @@
         <v>93854</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H37" s="7">
         <v>84</v>
@@ -3044,13 +3032,13 @@
         <v>94490</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M37" s="7">
         <v>170</v>
@@ -3059,13 +3047,13 @@
         <v>188344</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,13 +3068,13 @@
         <v>30579</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>244</v>
+        <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H38" s="7">
         <v>30</v>
@@ -3095,13 +3083,13 @@
         <v>33301</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M38" s="7">
         <v>60</v>
@@ -3110,13 +3098,13 @@
         <v>63880</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,7 +3160,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C04-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C04-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E721930-855F-4449-AB2B-880B0AF2779B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07008B0C-E229-4BEA-B9B4-0E57F00216D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3448A59C-0D06-467F-9EAA-CF9605CF07AB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E6A3F35C-1A19-4ADE-ACC4-3CE5A98CA7D7}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="249">
-  <si>
-    <t>Población según el tiempo de diagnóstico de la colesterol en 2015 (Tasa respuesta: 11,78%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="250">
+  <si>
+    <t>Población según el tiempo de diagnóstico de la colesterol en 2016 (Tasa respuesta: 11,78%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,526 +74,529 @@
     <t>59,19%</t>
   </si>
   <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
   </si>
   <si>
     <t>69,56%</t>
   </si>
   <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
   </si>
   <si>
     <t>64,59%</t>
   </si>
   <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>De 1 a 4 años</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>Ultimos 12 meses</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
     <t>51,08%</t>
   </si>
   <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>De 1 a 4 años</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>Ultimos 12 meses</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
   </si>
   <si>
     <t>18,21%</t>
   </si>
   <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
   </si>
   <si>
     <t>25,51%</t>
   </si>
   <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
   </si>
   <si>
     <t>12,98%</t>
@@ -602,22 +605,22 @@
     <t>6,61%</t>
   </si>
   <si>
-    <t>22,99%</t>
+    <t>23,45%</t>
   </si>
   <si>
     <t>7,75%</t>
   </si>
   <si>
-    <t>17,18%</t>
+    <t>17,08%</t>
   </si>
   <si>
     <t>10,46%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -626,160 +629,160 @@
     <t>76,59%</t>
   </si>
   <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
   </si>
   <si>
     <t>64,12%</t>
   </si>
   <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
   </si>
   <si>
     <t>69,32%</t>
   </si>
   <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
   </si>
   <si>
     <t>17,86%</t>
   </si>
   <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
   </si>
   <si>
     <t>24,98%</t>
   </si>
   <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
   </si>
   <si>
     <t>22,01%</t>
   </si>
   <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
   </si>
   <si>
     <t>5,55%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
   </si>
   <si>
     <t>8,67%</t>
   </si>
   <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
   </si>
   <si>
     <t>67,67%</t>
   </si>
   <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
   </si>
   <si>
     <t>71,73%</t>
   </si>
   <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
   </si>
   <si>
     <t>69,86%</t>
   </si>
   <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
   </si>
   <si>
     <t>24,38%</t>
   </si>
   <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
   </si>
   <si>
     <t>20,91%</t>
   </si>
   <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
   </si>
   <si>
     <t>22,5%</t>
   </si>
   <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
   </si>
   <si>
     <t>7,94%</t>
   </si>
   <si>
-    <t>11,17%</t>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
   </si>
   <si>
     <t>7,37%</t>
   </si>
   <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1194,7 +1197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5A5257-7C4F-4E65-A6A7-751D5F27D272}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557CDEB6-B333-4D54-A3E5-A084E18EC8CE}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1838,7 +1841,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1847,13 +1850,13 @@
         <v>902</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -1862,13 +1865,13 @@
         <v>1942</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,7 +1927,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1936,13 +1939,13 @@
         <v>38899</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -1951,13 +1954,13 @@
         <v>46428</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -1966,13 +1969,13 @@
         <v>85327</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,13 +1990,13 @@
         <v>3618</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -2002,13 +2005,13 @@
         <v>4873</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -2017,13 +2020,13 @@
         <v>8490</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2038,13 +2041,13 @@
         <v>2981</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -2053,13 +2056,13 @@
         <v>5032</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
@@ -2068,13 +2071,13 @@
         <v>8013</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2130,7 +2133,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2142,13 +2145,13 @@
         <v>25309</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -2157,13 +2160,13 @@
         <v>28255</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>54</v>
@@ -2172,13 +2175,13 @@
         <v>53564</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,13 +2196,13 @@
         <v>2086</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -2208,13 +2211,13 @@
         <v>3979</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -2223,13 +2226,13 @@
         <v>6065</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,10 +2250,10 @@
         <v>32</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2262,10 +2265,10 @@
         <v>32</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2277,10 +2280,10 @@
         <v>32</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,13 +2351,13 @@
         <v>13973</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -2363,13 +2366,13 @@
         <v>17649</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M24" s="7">
         <v>31</v>
@@ -2378,13 +2381,13 @@
         <v>31622</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,13 +2402,13 @@
         <v>8674</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -2414,13 +2417,13 @@
         <v>10858</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -2429,13 +2432,13 @@
         <v>19531</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2450,7 +2453,7 @@
         <v>4710</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>160</v>
+        <v>33</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>161</v>
@@ -2620,13 +2623,13 @@
         <v>12205</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M29" s="7">
         <v>30</v>
@@ -2635,13 +2638,13 @@
         <v>35480</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2656,13 +2659,13 @@
         <v>9354</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -2671,13 +2674,13 @@
         <v>5197</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>163</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M30" s="7">
         <v>14</v>
@@ -2686,13 +2689,13 @@
         <v>14551</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2748,7 +2751,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2760,13 +2763,13 @@
         <v>60059</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H32" s="7">
         <v>58</v>
@@ -2775,13 +2778,13 @@
         <v>70282</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M32" s="7">
         <v>117</v>
@@ -2790,13 +2793,13 @@
         <v>130340</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2811,13 +2814,13 @@
         <v>14005</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H33" s="7">
         <v>22</v>
@@ -2826,13 +2829,13 @@
         <v>27386</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M33" s="7">
         <v>35</v>
@@ -2841,13 +2844,13 @@
         <v>41391</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,13 +2865,13 @@
         <v>4350</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H34" s="7">
         <v>10</v>
@@ -2877,7 +2880,7 @@
         <v>11945</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>216</v>
+        <v>88</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>217</v>
@@ -3071,10 +3074,10 @@
         <v>240</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H38" s="7">
         <v>30</v>
@@ -3083,13 +3086,13 @@
         <v>33301</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M38" s="7">
         <v>60</v>
@@ -3098,13 +3101,13 @@
         <v>63880</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,7 +3163,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
